--- a/Support/Guides and Documentation/GLD_Dictionary_2021_04.xlsx
+++ b/Support/Guides and Documentation/GLD_Dictionary_2021_04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup.sharepoint.com/sites/Files5011/Shared Documents/JOBS GROUP LIBRARY/JD Team folder/Global Labor Database/GLD Standard Operating Procedures/Data Dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{3F521719-BC27-4005-858E-679269A8540A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C711314-830F-4590-A7F3-23CB0959290F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6451BF4D-8D1F-47A4-BBEE-E178D06B4B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Info and Example" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="543">
   <si>
     <t>Module</t>
   </si>
@@ -2003,6 +2003,15 @@
   <si>
     <t>1 = High; 2 = Medium;
 3 = Low; 4 = Armed Forces; 5 = Not elsewhere classified</t>
+  </si>
+  <si>
+    <t>1=no education; 
+2=primary (complete or incomplete) ; 
+3=secondary (complete); 
+4=tertiary (complete or incomplete)</t>
+  </si>
+  <si>
+    <t>Code as 2 (primary) anyone who has some schooling but has not finished secondary.</t>
   </si>
 </sst>
 </file>
@@ -3055,17 +3064,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
         <v>6</v>
       </c>
@@ -3105,7 +3114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3121,7 +3130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -3144,7 +3153,7 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -3165,7 +3174,7 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -3188,7 +3197,7 @@
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -3206,7 +3215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="1" t="s">
         <v>30</v>
@@ -3229,7 +3238,7 @@
       <c r="L8" s="67"/>
       <c r="M8" s="67"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -3250,7 +3259,7 @@
       <c r="L9" s="67"/>
       <c r="M9" s="67"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -3271,7 +3280,7 @@
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
     </row>
-    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
@@ -3290,7 +3299,7 @@
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
@@ -3306,7 +3315,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
@@ -3322,7 +3331,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>50</v>
       </c>
@@ -3360,7 +3369,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -3378,7 +3387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="4" t="s">
         <v>60</v>
@@ -3401,7 +3410,7 @@
       <c r="L17" s="67"/>
       <c r="M17" s="67"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="4" t="s">
         <v>64</v>
@@ -3417,7 +3426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
@@ -3433,7 +3442,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
         <v>70</v>
       </c>
@@ -3460,7 +3469,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="71"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="69"/>
       <c r="B21" s="13" t="s">
         <v>49</v>
@@ -3483,7 +3492,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="71"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
         <v>72</v>
       </c>
@@ -3506,7 +3515,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="66"/>
       <c r="B23" s="1" t="s">
         <v>75</v>
@@ -3527,7 +3536,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="71"/>
     </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="66"/>
       <c r="B24" s="1" t="s">
         <v>79</v>
@@ -3550,7 +3559,7 @@
       <c r="L24" s="71"/>
       <c r="M24" s="71"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="66"/>
       <c r="B25" s="1" t="s">
         <v>84</v>
@@ -3566,7 +3575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="66"/>
       <c r="B26" s="1" t="s">
         <v>88</v>
@@ -3582,7 +3591,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="1" t="s">
         <v>91</v>
@@ -3598,7 +3607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="66"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
@@ -3612,7 +3621,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="68"/>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="66"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
@@ -3626,7 +3635,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="68"/>
     </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="66"/>
       <c r="B30" s="1" t="s">
         <v>99</v>
@@ -3640,7 +3649,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="68"/>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="66"/>
       <c r="B31" s="1" t="s">
         <v>101</v>
@@ -3654,7 +3663,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="68"/>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="66"/>
       <c r="B32" s="1" t="s">
         <v>103</v>
@@ -3668,7 +3677,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="68"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
         <v>105</v>
       </c>
@@ -3686,7 +3695,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="65"/>
       <c r="B34" s="4" t="s">
         <v>110</v>
@@ -3702,7 +3711,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="4" t="s">
         <v>112</v>
@@ -3718,7 +3727,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="4" t="s">
         <v>115</v>
@@ -3734,7 +3743,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -3750,7 +3759,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="4" t="s">
         <v>123</v>
@@ -3766,7 +3775,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="66" t="s">
         <v>127</v>
       </c>
@@ -3784,7 +3793,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="66"/>
       <c r="B40" s="1" t="s">
         <v>131</v>
@@ -3800,7 +3809,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="66"/>
       <c r="B41" s="1" t="s">
         <v>134</v>
@@ -3816,7 +3825,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="66"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
@@ -3832,7 +3841,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="66"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
@@ -3848,7 +3857,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="66"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
@@ -3864,7 +3873,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="66"/>
       <c r="B45" s="1" t="s">
         <v>144</v>
@@ -3882,7 +3891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="66"/>
       <c r="B46" s="1" t="s">
         <v>148</v>
@@ -3898,7 +3907,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="66"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3906,7 +3915,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="66"/>
       <c r="B48" s="1" t="s">
         <v>150</v>
@@ -3922,7 +3931,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="66"/>
       <c r="B49" s="1" t="s">
         <v>154</v>
@@ -3938,7 +3947,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="66"/>
       <c r="B50" s="1" t="s">
         <v>158</v>
@@ -3954,7 +3963,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="66"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3962,7 +3971,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="66"/>
       <c r="B52" s="1" t="s">
         <v>160</v>
@@ -3978,7 +3987,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
       <c r="B53" s="1" t="s">
         <v>163</v>
@@ -3994,7 +4003,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="66"/>
       <c r="B54" s="1" t="s">
         <v>166</v>
@@ -4010,7 +4019,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="66"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
@@ -4026,7 +4035,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="66"/>
       <c r="B56" s="1" t="s">
         <v>171</v>
@@ -4040,7 +4049,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="66"/>
       <c r="B57" s="1" t="s">
         <v>173</v>
@@ -4054,7 +4063,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="66"/>
       <c r="B58" s="1" t="s">
         <v>175</v>
@@ -4070,7 +4079,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="66"/>
       <c r="B59" s="1" t="s">
         <v>178</v>
@@ -4086,7 +4095,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="66"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
@@ -4102,7 +4111,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="66"/>
       <c r="B61" s="1" t="s">
         <v>182</v>
@@ -4118,7 +4127,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="66"/>
       <c r="B62" s="1" t="s">
         <v>184</v>
@@ -4134,7 +4143,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="66"/>
       <c r="B63" s="1" t="s">
         <v>186</v>
@@ -4150,7 +4159,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="66"/>
       <c r="B64" s="1" t="s">
         <v>188</v>
@@ -4166,7 +4175,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="66"/>
       <c r="B65" s="1" t="s">
         <v>190</v>
@@ -4180,7 +4189,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="66"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
@@ -4196,7 +4205,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="66"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4204,7 +4213,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="66"/>
       <c r="B68" s="1" t="s">
         <v>195</v>
@@ -4220,7 +4229,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="66"/>
       <c r="B69" s="1" t="s">
         <v>198</v>
@@ -4236,7 +4245,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
       <c r="B70" s="1" t="s">
         <v>201</v>
@@ -4250,7 +4259,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="66"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4258,7 +4267,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="66"/>
       <c r="B72" s="1" t="s">
         <v>203</v>
@@ -4274,7 +4283,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="66"/>
       <c r="B73" s="1" t="s">
         <v>205</v>
@@ -4290,7 +4299,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="66"/>
       <c r="B74" s="1" t="s">
         <v>208</v>
@@ -4306,7 +4315,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="66"/>
       <c r="B75" s="1" t="s">
         <v>210</v>
@@ -4320,7 +4329,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="66"/>
       <c r="B76" s="1" t="s">
         <v>212</v>
@@ -4334,7 +4343,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="66"/>
       <c r="B77" s="1" t="s">
         <v>214</v>
@@ -4348,7 +4357,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="66"/>
       <c r="B78" s="1" t="s">
         <v>216</v>
@@ -4362,7 +4371,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="66"/>
       <c r="B79" s="1" t="s">
         <v>218</v>
@@ -4376,7 +4385,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="1" t="s">
         <v>220</v>
@@ -4390,7 +4399,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="66"/>
       <c r="B81" s="1" t="s">
         <v>222</v>
@@ -4404,7 +4413,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="66"/>
       <c r="B82" s="1" t="s">
         <v>224</v>
@@ -4418,7 +4427,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="66"/>
       <c r="B83" s="1" t="s">
         <v>226</v>
@@ -4432,7 +4441,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="66"/>
       <c r="B84" s="1" t="s">
         <v>228</v>
@@ -4446,7 +4455,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="66"/>
       <c r="B85" s="1" t="s">
         <v>230</v>
@@ -4460,7 +4469,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="66"/>
       <c r="B86" s="1" t="s">
         <v>232</v>
@@ -4476,7 +4485,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="66"/>
       <c r="B87" s="1" t="s">
         <v>234</v>
@@ -4490,7 +4499,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="66"/>
       <c r="B88" s="1" t="s">
         <v>236</v>
@@ -4504,7 +4513,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="66"/>
       <c r="B89" s="1" t="s">
         <v>238</v>
@@ -4518,7 +4527,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="66"/>
       <c r="B90" s="1" t="s">
         <v>240</v>
@@ -4534,7 +4543,7 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="66"/>
       <c r="B91" s="1" t="s">
         <v>242</v>
@@ -4548,7 +4557,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="66"/>
       <c r="B92" s="1" t="s">
         <v>244</v>
@@ -4562,7 +4571,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="66"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4570,7 +4579,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="66"/>
       <c r="B94" s="1" t="s">
         <v>246</v>
@@ -4584,7 +4593,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="66"/>
       <c r="B95" s="1" t="s">
         <v>248</v>
@@ -4598,7 +4607,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="66"/>
       <c r="B96" s="1" t="s">
         <v>250</v>
@@ -4612,7 +4621,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="66"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4620,7 +4629,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="66"/>
       <c r="B98" s="1" t="s">
         <v>252</v>
@@ -4634,7 +4643,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="66"/>
       <c r="B99" s="1" t="s">
         <v>254</v>
@@ -4648,7 +4657,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="66"/>
       <c r="B100" s="1" t="s">
         <v>257</v>
@@ -4662,7 +4671,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="66"/>
       <c r="B101" s="1" t="s">
         <v>259</v>
@@ -4676,7 +4685,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="66"/>
       <c r="B102" s="1" t="s">
         <v>262</v>
@@ -4690,7 +4699,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="66"/>
       <c r="B103" s="1" t="s">
         <v>264</v>
@@ -4704,7 +4713,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="66"/>
       <c r="B104" s="1" t="s">
         <v>266</v>
@@ -4718,7 +4727,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="66"/>
       <c r="B105" s="1" t="s">
         <v>268</v>
@@ -4732,7 +4741,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="66"/>
       <c r="B106" s="1" t="s">
         <v>270</v>
@@ -4746,7 +4755,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="66"/>
       <c r="B107" s="1" t="s">
         <v>272</v>
@@ -4760,7 +4769,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="66"/>
       <c r="B108" s="1" t="s">
         <v>274</v>
@@ -4774,7 +4783,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="66"/>
       <c r="B109" s="1" t="s">
         <v>276</v>
@@ -4788,7 +4797,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="66"/>
       <c r="B110" s="1" t="s">
         <v>278</v>
@@ -4804,7 +4813,7 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="66"/>
       <c r="B111" s="1" t="s">
         <v>280</v>
@@ -4818,7 +4827,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="66"/>
       <c r="B112" s="1" t="s">
         <v>282</v>
@@ -4832,7 +4841,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="66"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4840,7 +4849,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="66"/>
       <c r="B114" s="1" t="s">
         <v>284</v>
@@ -4854,7 +4863,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="66"/>
       <c r="B115" s="1" t="s">
         <v>287</v>
@@ -4868,7 +4877,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="66"/>
       <c r="B116" s="1" t="s">
         <v>289</v>
@@ -4882,7 +4891,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="66"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4890,7 +4899,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="66"/>
       <c r="B118" s="1" t="s">
         <v>291</v>
@@ -4904,7 +4913,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="66"/>
       <c r="B119" s="1" t="s">
         <v>293</v>
@@ -4918,7 +4927,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="66"/>
       <c r="B120" s="1" t="s">
         <v>296</v>
@@ -4932,7 +4941,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="66"/>
       <c r="B121" s="1" t="s">
         <v>298</v>
@@ -4946,7 +4955,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="66"/>
       <c r="B122" s="1" t="s">
         <v>301</v>
@@ -4960,7 +4969,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="66"/>
       <c r="B123" s="1" t="s">
         <v>303</v>
@@ -4972,7 +4981,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="66"/>
       <c r="B124" s="1" t="s">
         <v>305</v>
@@ -4986,7 +4995,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="66"/>
       <c r="B125" s="1" t="s">
         <v>307</v>
@@ -5000,7 +5009,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="66"/>
       <c r="B126" s="1" t="s">
         <v>309</v>
@@ -5014,7 +5023,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="66"/>
       <c r="B127" s="1" t="s">
         <v>311</v>
@@ -5028,7 +5037,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="66"/>
       <c r="B128" s="1" t="s">
         <v>313</v>
@@ -5044,7 +5053,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="66"/>
       <c r="B129" s="1" t="s">
         <v>315</v>
@@ -5058,7 +5067,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="66"/>
       <c r="B130" s="1" t="s">
         <v>317</v>
@@ -5072,7 +5081,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="66"/>
       <c r="B131" s="1" t="s">
         <v>319</v>
@@ -5086,7 +5095,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="66"/>
       <c r="B132" s="1" t="s">
         <v>321</v>
@@ -5102,7 +5111,7 @@
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="66"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5112,7 +5121,7 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="66"/>
       <c r="B134" s="1" t="s">
         <v>324</v>
@@ -5126,7 +5135,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="66"/>
       <c r="B135" s="1" t="s">
         <v>326</v>
@@ -5140,7 +5149,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="66"/>
       <c r="B136" s="1" t="s">
         <v>328</v>
@@ -5179,21 +5188,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -5213,7 +5222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>6</v>
       </c>
@@ -5231,7 +5240,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="72"/>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -5249,7 +5258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="72"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
@@ -5265,7 +5274,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="72"/>
       <c r="B5" s="18" t="s">
         <v>469</v>
@@ -5281,7 +5290,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="72"/>
       <c r="B6" s="18" t="s">
         <v>19</v>
@@ -5297,7 +5306,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="72"/>
       <c r="B7" s="18" t="s">
         <v>432</v>
@@ -5311,7 +5320,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
       <c r="B8" s="18" t="s">
         <v>433</v>
@@ -5325,7 +5334,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="72"/>
       <c r="B9" s="18" t="s">
         <v>434</v>
@@ -5339,7 +5348,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="72"/>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -5357,7 +5366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="72"/>
       <c r="B11" s="18" t="s">
         <v>26</v>
@@ -5375,7 +5384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
       <c r="B12" s="18" t="s">
         <v>30</v>
@@ -5391,7 +5400,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="72"/>
       <c r="B13" s="18" t="s">
         <v>34</v>
@@ -5407,7 +5416,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="72"/>
       <c r="B14" s="18" t="s">
         <v>37</v>
@@ -5423,7 +5432,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="72"/>
       <c r="B15" s="21" t="s">
         <v>41</v>
@@ -5435,7 +5444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="72"/>
       <c r="B16" s="18" t="s">
         <v>430</v>
@@ -5449,7 +5458,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="73" t="s">
         <v>50</v>
       </c>
@@ -5467,7 +5476,7 @@
       </c>
       <c r="F17" s="35"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="73"/>
       <c r="B18" s="38" t="s">
         <v>55</v>
@@ -5485,7 +5494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="73"/>
       <c r="B19" s="38" t="s">
         <v>60</v>
@@ -5501,7 +5510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="73"/>
       <c r="B20" s="38" t="s">
         <v>64</v>
@@ -5517,7 +5526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="73"/>
       <c r="B21" s="46" t="s">
         <v>44</v>
@@ -5533,7 +5542,7 @@
       </c>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="73"/>
       <c r="B22" s="46" t="s">
         <v>47</v>
@@ -5549,7 +5558,7 @@
       </c>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="73"/>
       <c r="B23" s="42" t="s">
         <v>67</v>
@@ -5565,7 +5574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
         <v>72</v>
       </c>
@@ -5581,7 +5590,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="77"/>
       <c r="B25" s="18" t="s">
         <v>73</v>
@@ -5597,7 +5606,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="77"/>
       <c r="B26" s="18" t="s">
         <v>75</v>
@@ -5613,7 +5622,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="77"/>
       <c r="B27" s="18" t="s">
         <v>79</v>
@@ -5631,7 +5640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="77"/>
       <c r="B28" s="18" t="s">
         <v>84</v>
@@ -5647,7 +5656,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="77"/>
       <c r="B29" s="18" t="s">
         <v>88</v>
@@ -5663,7 +5672,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="77"/>
       <c r="B30" s="18" t="s">
         <v>91</v>
@@ -5679,7 +5688,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="77"/>
       <c r="B31" s="18" t="s">
         <v>95</v>
@@ -5693,7 +5702,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="75"/>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="77"/>
       <c r="B32" s="18" t="s">
         <v>97</v>
@@ -5707,7 +5716,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="75"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="77"/>
       <c r="B33" s="18" t="s">
         <v>99</v>
@@ -5721,7 +5730,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="75"/>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="77"/>
       <c r="B34" s="18" t="s">
         <v>101</v>
@@ -5735,7 +5744,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="75"/>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="77"/>
       <c r="B35" s="18" t="s">
         <v>103</v>
@@ -5749,7 +5758,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="78" t="s">
         <v>487</v>
       </c>
@@ -5765,7 +5774,7 @@
       <c r="E36" s="36"/>
       <c r="F36" s="37"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="78"/>
       <c r="B37" s="48" t="s">
         <v>492</v>
@@ -5781,7 +5790,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="78"/>
       <c r="B38" s="38" t="s">
         <v>491</v>
@@ -5795,7 +5804,7 @@
       <c r="E38" s="40"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="78"/>
       <c r="B39" s="38" t="s">
         <v>475</v>
@@ -5811,7 +5820,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="78"/>
       <c r="B40" s="38" t="s">
         <v>535</v>
@@ -5827,7 +5836,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="78"/>
       <c r="B41" s="38" t="s">
         <v>476</v>
@@ -5841,7 +5850,7 @@
       <c r="E41" s="40"/>
       <c r="F41" s="41"/>
     </row>
-    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="78"/>
       <c r="B42" s="38" t="s">
         <v>477</v>
@@ -5855,7 +5864,7 @@
       <c r="E42" s="40"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="78"/>
       <c r="B43" s="46" t="s">
         <v>495</v>
@@ -5869,7 +5878,7 @@
       <c r="E43" s="50"/>
       <c r="F43" s="51"/>
     </row>
-    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="78"/>
       <c r="B44" s="42" t="s">
         <v>478</v>
@@ -5883,7 +5892,7 @@
       <c r="E44" s="44"/>
       <c r="F44" s="45"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="72" t="s">
         <v>105</v>
       </c>
@@ -5901,7 +5910,7 @@
       </c>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="72"/>
       <c r="B46" s="24" t="s">
         <v>106</v>
@@ -5917,7 +5926,7 @@
       </c>
       <c r="F46" s="52"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="72"/>
       <c r="B47" s="27" t="s">
         <v>110</v>
@@ -5933,7 +5942,7 @@
       </c>
       <c r="F47" s="29"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="72"/>
       <c r="B48" s="27" t="s">
         <v>112</v>
@@ -5949,7 +5958,7 @@
       </c>
       <c r="F48" s="29"/>
     </row>
-    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="72"/>
       <c r="B49" s="27" t="s">
         <v>115</v>
@@ -5967,7 +5976,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="72"/>
       <c r="B50" s="27" t="s">
         <v>119</v>
@@ -5983,7 +5992,7 @@
       </c>
       <c r="F50" s="29"/>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="72"/>
       <c r="B51" s="30" t="s">
         <v>123</v>
@@ -5992,14 +6001,16 @@
         <v>124</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>125</v>
+        <v>541</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="31"/>
-    </row>
-    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F51" s="31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="72"/>
       <c r="B52" s="15" t="s">
         <v>460</v>
@@ -6015,7 +6026,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="73" t="s">
         <v>525</v>
       </c>
@@ -6031,7 +6042,7 @@
       <c r="E53" s="55"/>
       <c r="F53" s="54"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="73"/>
       <c r="B54" s="53" t="s">
         <v>520</v>
@@ -6045,7 +6056,7 @@
       <c r="E54" s="55"/>
       <c r="F54" s="54"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="73"/>
       <c r="B55" s="53" t="s">
         <v>521</v>
@@ -6059,7 +6070,7 @@
       <c r="E55" s="55"/>
       <c r="F55" s="54"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="73"/>
       <c r="B56" s="53" t="s">
         <v>522</v>
@@ -6073,7 +6084,7 @@
       <c r="E56" s="55"/>
       <c r="F56" s="54"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="73"/>
       <c r="B57" s="53" t="s">
         <v>523</v>
@@ -6085,7 +6096,7 @@
       <c r="E57" s="55"/>
       <c r="F57" s="54"/>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="73"/>
       <c r="B58" s="53" t="s">
         <v>524</v>
@@ -6101,7 +6112,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="72" t="s">
         <v>127</v>
       </c>
@@ -6119,7 +6130,7 @@
       </c>
       <c r="F59" s="58"/>
     </row>
-    <row r="60" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="72"/>
       <c r="B60" s="59" t="s">
         <v>131</v>
@@ -6137,7 +6148,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="72"/>
       <c r="B61" s="59" t="s">
         <v>509</v>
@@ -6153,7 +6164,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="72"/>
       <c r="B62" s="59" t="s">
         <v>510</v>
@@ -6169,7 +6180,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="72"/>
       <c r="B63" s="59" t="s">
         <v>134</v>
@@ -6185,7 +6196,7 @@
       </c>
       <c r="F63" s="60"/>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="72"/>
       <c r="B64" s="59" t="s">
         <v>137</v>
@@ -6201,7 +6212,7 @@
       </c>
       <c r="F64" s="60"/>
     </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="72"/>
       <c r="B65" s="59" t="s">
         <v>139</v>
@@ -6217,7 +6228,7 @@
       </c>
       <c r="F65" s="60"/>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="72"/>
       <c r="B66" s="59" t="s">
         <v>141</v>
@@ -6233,7 +6244,7 @@
       </c>
       <c r="F66" s="60"/>
     </row>
-    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="72"/>
       <c r="B67" s="59" t="s">
         <v>144</v>
@@ -6251,7 +6262,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="72"/>
       <c r="B68" s="59" t="s">
         <v>148</v>
@@ -6267,7 +6278,7 @@
       </c>
       <c r="F68" s="60"/>
     </row>
-    <row r="69" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A69" s="72"/>
       <c r="B69" s="59" t="s">
         <v>443</v>
@@ -6283,7 +6294,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A70" s="72"/>
       <c r="B70" s="59" t="s">
         <v>150</v>
@@ -6299,7 +6310,7 @@
       </c>
       <c r="F70" s="60"/>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="72"/>
       <c r="B71" s="59" t="s">
         <v>154</v>
@@ -6315,7 +6326,7 @@
       </c>
       <c r="F71" s="60"/>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="72"/>
       <c r="B72" s="59" t="s">
         <v>158</v>
@@ -6331,7 +6342,7 @@
       </c>
       <c r="F72" s="60"/>
     </row>
-    <row r="73" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A73" s="72"/>
       <c r="B73" s="59" t="s">
         <v>442</v>
@@ -6347,7 +6358,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="72"/>
       <c r="B74" s="59" t="s">
         <v>498</v>
@@ -6363,7 +6374,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A75" s="72"/>
       <c r="B75" s="59" t="s">
         <v>160</v>
@@ -6379,7 +6390,7 @@
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="72"/>
       <c r="B76" s="59" t="s">
         <v>163</v>
@@ -6395,7 +6406,7 @@
       </c>
       <c r="F76" s="60"/>
     </row>
-    <row r="77" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="72"/>
       <c r="B77" s="59" t="s">
         <v>166</v>
@@ -6411,7 +6422,7 @@
       </c>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="72"/>
       <c r="B78" s="59" t="s">
         <v>169</v>
@@ -6427,7 +6438,7 @@
       </c>
       <c r="F78" s="60"/>
     </row>
-    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" s="72"/>
       <c r="B79" s="59" t="s">
         <v>171</v>
@@ -6443,7 +6454,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="72"/>
       <c r="B80" s="59" t="s">
         <v>173</v>
@@ -6457,7 +6468,7 @@
       <c r="E80" s="61"/>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="72"/>
       <c r="B81" s="59" t="s">
         <v>175</v>
@@ -6473,7 +6484,7 @@
       </c>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="72"/>
       <c r="B82" s="59" t="s">
         <v>178</v>
@@ -6489,7 +6500,7 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="72"/>
       <c r="B83" s="59" t="s">
         <v>180</v>
@@ -6505,7 +6516,7 @@
       </c>
       <c r="F83" s="60"/>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="72"/>
       <c r="B84" s="59" t="s">
         <v>182</v>
@@ -6521,7 +6532,7 @@
       </c>
       <c r="F84" s="60"/>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="72"/>
       <c r="B85" s="59" t="s">
         <v>184</v>
@@ -6537,7 +6548,7 @@
       </c>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="72"/>
       <c r="B86" s="59" t="s">
         <v>186</v>
@@ -6553,7 +6564,7 @@
       </c>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="72"/>
       <c r="B87" s="59" t="s">
         <v>188</v>
@@ -6569,7 +6580,7 @@
       </c>
       <c r="F87" s="60"/>
     </row>
-    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="72"/>
       <c r="B88" s="59" t="s">
         <v>190</v>
@@ -6583,7 +6594,7 @@
       <c r="E88" s="61"/>
       <c r="F88" s="60"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="72"/>
       <c r="B89" s="59" t="s">
         <v>193</v>
@@ -6599,7 +6610,7 @@
       </c>
       <c r="F89" s="60"/>
     </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="72"/>
       <c r="B90" s="59" t="s">
         <v>447</v>
@@ -6615,7 +6626,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="72"/>
       <c r="B91" s="59" t="s">
         <v>195</v>
@@ -6631,7 +6642,7 @@
       </c>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="72"/>
       <c r="B92" s="59" t="s">
         <v>198</v>
@@ -6647,7 +6658,7 @@
       </c>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="72"/>
       <c r="B93" s="59" t="s">
         <v>201</v>
@@ -6661,7 +6672,7 @@
       <c r="E93" s="61"/>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="72"/>
       <c r="B94" s="59" t="s">
         <v>451</v>
@@ -6677,7 +6688,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="72"/>
       <c r="B95" s="59" t="s">
         <v>502</v>
@@ -6693,7 +6704,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A96" s="72"/>
       <c r="B96" s="59" t="s">
         <v>203</v>
@@ -6709,7 +6720,7 @@
       </c>
       <c r="F96" s="60"/>
     </row>
-    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="72"/>
       <c r="B97" s="59" t="s">
         <v>205</v>
@@ -6725,7 +6736,7 @@
       </c>
       <c r="F97" s="60"/>
     </row>
-    <row r="98" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A98" s="72"/>
       <c r="B98" s="59" t="s">
         <v>208</v>
@@ -6741,7 +6752,7 @@
       </c>
       <c r="F98" s="60"/>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="72"/>
       <c r="B99" s="59" t="s">
         <v>210</v>
@@ -6755,7 +6766,7 @@
       <c r="E99" s="61"/>
       <c r="F99" s="60"/>
     </row>
-    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="72"/>
       <c r="B100" s="59" t="s">
         <v>212</v>
@@ -6771,7 +6782,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="72"/>
       <c r="B101" s="59" t="s">
         <v>214</v>
@@ -6785,7 +6796,7 @@
       <c r="E101" s="61"/>
       <c r="F101" s="60"/>
     </row>
-    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="72"/>
       <c r="B102" s="59" t="s">
         <v>216</v>
@@ -6799,7 +6810,7 @@
       <c r="E102" s="61"/>
       <c r="F102" s="60"/>
     </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="72"/>
       <c r="B103" s="59" t="s">
         <v>218</v>
@@ -6813,7 +6824,7 @@
       <c r="E103" s="61"/>
       <c r="F103" s="60"/>
     </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="72"/>
       <c r="B104" s="59" t="s">
         <v>220</v>
@@ -6829,7 +6840,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="72"/>
       <c r="B105" s="59" t="s">
         <v>222</v>
@@ -6843,7 +6854,7 @@
       <c r="E105" s="61"/>
       <c r="F105" s="60"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="72"/>
       <c r="B106" s="59" t="s">
         <v>459</v>
@@ -6857,7 +6868,7 @@
       <c r="E106" s="61"/>
       <c r="F106" s="60"/>
     </row>
-    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="72"/>
       <c r="B107" s="59" t="s">
         <v>473</v>
@@ -6871,7 +6882,7 @@
       <c r="E107" s="61"/>
       <c r="F107" s="60"/>
     </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="72"/>
       <c r="B108" s="59" t="s">
         <v>228</v>
@@ -6885,7 +6896,7 @@
       <c r="E108" s="61"/>
       <c r="F108" s="60"/>
     </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="72"/>
       <c r="B109" s="59" t="s">
         <v>230</v>
@@ -6899,7 +6910,7 @@
       <c r="E109" s="61"/>
       <c r="F109" s="60"/>
     </row>
-    <row r="110" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A110" s="72"/>
       <c r="B110" s="59" t="s">
         <v>232</v>
@@ -6917,7 +6928,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="72"/>
       <c r="B111" s="59" t="s">
         <v>513</v>
@@ -6933,7 +6944,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="72"/>
       <c r="B112" s="59" t="s">
         <v>514</v>
@@ -6949,7 +6960,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="72"/>
       <c r="B113" s="59" t="s">
         <v>234</v>
@@ -6963,7 +6974,7 @@
       <c r="E113" s="61"/>
       <c r="F113" s="60"/>
     </row>
-    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="72"/>
       <c r="B114" s="59" t="s">
         <v>236</v>
@@ -6977,7 +6988,7 @@
       <c r="E114" s="61"/>
       <c r="F114" s="60"/>
     </row>
-    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="72"/>
       <c r="B115" s="59" t="s">
         <v>238</v>
@@ -6991,7 +7002,7 @@
       <c r="E115" s="61"/>
       <c r="F115" s="60"/>
     </row>
-    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="72"/>
       <c r="B116" s="59" t="s">
         <v>240</v>
@@ -7007,7 +7018,7 @@
       </c>
       <c r="F116" s="60"/>
     </row>
-    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="72"/>
       <c r="B117" s="59" t="s">
         <v>242</v>
@@ -7021,7 +7032,7 @@
       <c r="E117" s="61"/>
       <c r="F117" s="60"/>
     </row>
-    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="72"/>
       <c r="B118" s="59" t="s">
         <v>244</v>
@@ -7035,7 +7046,7 @@
       <c r="E118" s="61"/>
       <c r="F118" s="60"/>
     </row>
-    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="72"/>
       <c r="B119" s="59" t="s">
         <v>449</v>
@@ -7051,7 +7062,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A120" s="72"/>
       <c r="B120" s="59" t="s">
         <v>246</v>
@@ -7065,7 +7076,7 @@
       <c r="E120" s="61"/>
       <c r="F120" s="60"/>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="72"/>
       <c r="B121" s="59" t="s">
         <v>248</v>
@@ -7079,7 +7090,7 @@
       <c r="E121" s="61"/>
       <c r="F121" s="60"/>
     </row>
-    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="72"/>
       <c r="B122" s="59" t="s">
         <v>250</v>
@@ -7093,7 +7104,7 @@
       <c r="E122" s="61"/>
       <c r="F122" s="60"/>
     </row>
-    <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="72"/>
       <c r="B123" s="59" t="s">
         <v>453</v>
@@ -7109,7 +7120,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="72"/>
       <c r="B124" s="59" t="s">
         <v>503</v>
@@ -7125,7 +7136,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A125" s="72"/>
       <c r="B125" s="59" t="s">
         <v>252</v>
@@ -7139,7 +7150,7 @@
       <c r="E125" s="61"/>
       <c r="F125" s="60"/>
     </row>
-    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="72"/>
       <c r="B126" s="59" t="s">
         <v>254</v>
@@ -7153,7 +7164,7 @@
       <c r="E126" s="61"/>
       <c r="F126" s="60"/>
     </row>
-    <row r="127" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A127" s="72"/>
       <c r="B127" s="59" t="s">
         <v>257</v>
@@ -7167,7 +7178,7 @@
       <c r="E127" s="61"/>
       <c r="F127" s="60"/>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="72"/>
       <c r="B128" s="59" t="s">
         <v>259</v>
@@ -7181,7 +7192,7 @@
       <c r="E128" s="61"/>
       <c r="F128" s="60"/>
     </row>
-    <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="72"/>
       <c r="B129" s="59" t="s">
         <v>262</v>
@@ -7195,7 +7206,7 @@
       <c r="E129" s="61"/>
       <c r="F129" s="60"/>
     </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="72"/>
       <c r="B130" s="59" t="s">
         <v>264</v>
@@ -7209,7 +7220,7 @@
       <c r="E130" s="61"/>
       <c r="F130" s="60"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="72"/>
       <c r="B131" s="59" t="s">
         <v>266</v>
@@ -7223,7 +7234,7 @@
       <c r="E131" s="61"/>
       <c r="F131" s="60"/>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="72"/>
       <c r="B132" s="59" t="s">
         <v>268</v>
@@ -7237,7 +7248,7 @@
       <c r="E132" s="61"/>
       <c r="F132" s="60"/>
     </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="72"/>
       <c r="B133" s="59" t="s">
         <v>270</v>
@@ -7251,7 +7262,7 @@
       <c r="E133" s="61"/>
       <c r="F133" s="60"/>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="72"/>
       <c r="B134" s="59" t="s">
         <v>272</v>
@@ -7265,7 +7276,7 @@
       <c r="E134" s="61"/>
       <c r="F134" s="60"/>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="72"/>
       <c r="B135" s="59" t="s">
         <v>274</v>
@@ -7279,7 +7290,7 @@
       <c r="E135" s="61"/>
       <c r="F135" s="60"/>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="72"/>
       <c r="B136" s="59" t="s">
         <v>276</v>
@@ -7293,7 +7304,7 @@
       <c r="E136" s="61"/>
       <c r="F136" s="60"/>
     </row>
-    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="72"/>
       <c r="B137" s="59" t="s">
         <v>278</v>
@@ -7309,7 +7320,7 @@
       </c>
       <c r="F137" s="60"/>
     </row>
-    <row r="138" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="72"/>
       <c r="B138" s="59" t="s">
         <v>280</v>
@@ -7323,7 +7334,7 @@
       <c r="E138" s="61"/>
       <c r="F138" s="60"/>
     </row>
-    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="72"/>
       <c r="B139" s="59" t="s">
         <v>474</v>
@@ -7337,7 +7348,7 @@
       <c r="E139" s="61"/>
       <c r="F139" s="60"/>
     </row>
-    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="72"/>
       <c r="B140" s="59" t="s">
         <v>455</v>
@@ -7353,7 +7364,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A141" s="72"/>
       <c r="B141" s="59" t="s">
         <v>284</v>
@@ -7367,7 +7378,7 @@
       <c r="E141" s="61"/>
       <c r="F141" s="60"/>
     </row>
-    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="72"/>
       <c r="B142" s="59" t="s">
         <v>287</v>
@@ -7381,7 +7392,7 @@
       <c r="E142" s="61"/>
       <c r="F142" s="60"/>
     </row>
-    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="72"/>
       <c r="B143" s="59" t="s">
         <v>289</v>
@@ -7395,7 +7406,7 @@
       <c r="E143" s="61"/>
       <c r="F143" s="60"/>
     </row>
-    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="72"/>
       <c r="B144" s="59" t="s">
         <v>457</v>
@@ -7411,7 +7422,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="72"/>
       <c r="B145" s="59" t="s">
         <v>504</v>
@@ -7427,7 +7438,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A146" s="72"/>
       <c r="B146" s="59" t="s">
         <v>291</v>
@@ -7441,7 +7452,7 @@
       <c r="E146" s="61"/>
       <c r="F146" s="60"/>
     </row>
-    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="72"/>
       <c r="B147" s="59" t="s">
         <v>293</v>
@@ -7455,7 +7466,7 @@
       <c r="E147" s="61"/>
       <c r="F147" s="60"/>
     </row>
-    <row r="148" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A148" s="72"/>
       <c r="B148" s="59" t="s">
         <v>296</v>
@@ -7469,7 +7480,7 @@
       <c r="E148" s="61"/>
       <c r="F148" s="60"/>
     </row>
-    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="72"/>
       <c r="B149" s="59" t="s">
         <v>298</v>
@@ -7483,7 +7494,7 @@
       <c r="E149" s="61"/>
       <c r="F149" s="60"/>
     </row>
-    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="72"/>
       <c r="B150" s="59" t="s">
         <v>301</v>
@@ -7497,7 +7508,7 @@
       <c r="E150" s="61"/>
       <c r="F150" s="60"/>
     </row>
-    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="72"/>
       <c r="B151" s="59" t="s">
         <v>303</v>
@@ -7509,7 +7520,7 @@
       <c r="E151" s="61"/>
       <c r="F151" s="60"/>
     </row>
-    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="72"/>
       <c r="B152" s="59" t="s">
         <v>305</v>
@@ -7523,7 +7534,7 @@
       <c r="E152" s="61"/>
       <c r="F152" s="60"/>
     </row>
-    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="72"/>
       <c r="B153" s="59" t="s">
         <v>307</v>
@@ -7537,7 +7548,7 @@
       <c r="E153" s="61"/>
       <c r="F153" s="60"/>
     </row>
-    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="72"/>
       <c r="B154" s="59" t="s">
         <v>309</v>
@@ -7551,7 +7562,7 @@
       <c r="E154" s="61"/>
       <c r="F154" s="60"/>
     </row>
-    <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="72"/>
       <c r="B155" s="59" t="s">
         <v>311</v>
@@ -7565,7 +7576,7 @@
       <c r="E155" s="61"/>
       <c r="F155" s="60"/>
     </row>
-    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="72"/>
       <c r="B156" s="59" t="s">
         <v>224</v>
@@ -7579,7 +7590,7 @@
       <c r="E156" s="61"/>
       <c r="F156" s="60"/>
     </row>
-    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="72"/>
       <c r="B157" s="59" t="s">
         <v>315</v>
@@ -7593,7 +7604,7 @@
       <c r="E157" s="61"/>
       <c r="F157" s="60"/>
     </row>
-    <row r="158" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="72"/>
       <c r="B158" s="59" t="s">
         <v>317</v>
@@ -7607,7 +7618,7 @@
       <c r="E158" s="61"/>
       <c r="F158" s="60"/>
     </row>
-    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="72"/>
       <c r="B159" s="59" t="s">
         <v>319</v>
@@ -7621,7 +7632,7 @@
       <c r="E159" s="61"/>
       <c r="F159" s="60"/>
     </row>
-    <row r="160" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A160" s="72"/>
       <c r="B160" s="59" t="s">
         <v>321</v>
@@ -7639,7 +7650,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="72"/>
       <c r="B161" s="59"/>
       <c r="C161" s="59"/>
@@ -7651,7 +7662,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="72"/>
       <c r="B162" s="59" t="s">
         <v>324</v>
@@ -7665,7 +7676,7 @@
       <c r="E162" s="61"/>
       <c r="F162" s="60"/>
     </row>
-    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="72"/>
       <c r="B163" s="59" t="s">
         <v>326</v>
@@ -7681,7 +7692,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="72"/>
       <c r="B164" s="62" t="s">
         <v>328</v>
@@ -7717,47 +7728,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -7999,23 +7973,70 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8037,27 +8058,17 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Support/Guides and Documentation/GLD_Dictionary_2021_04.xlsx
+++ b/Support/Guides and Documentation/GLD_Dictionary_2021_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb529026\Documents\gld\Support\Guides and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6451BF4D-8D1F-47A4-BBEE-E178D06B4B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965D0990-3EC0-4D63-9B9D-5F7886CF0B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C416022C-A35E-4942-8219-7CEF6CA35A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Info and Example" sheetId="1" r:id="rId1"/>
@@ -1732,9 +1732,6 @@
     <t>Continuous variable of three digits</t>
   </si>
   <si>
-    <t>String - Either single letter (ISIC Section) or four digit code.</t>
-  </si>
-  <si>
     <t>Code of ISIC - 4 for example is
 Q - Human health and social work activities
    86 Human health activities
@@ -2012,6 +2009,29 @@
   </si>
   <si>
     <t>Code as 2 (primary) anyone who has some schooling but has not finished secondary.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Either single letter (ISIC Section) or four digit code.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3064,17 +3084,17 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>6</v>
       </c>
@@ -3114,7 +3134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="66"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -3130,7 +3150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -3153,7 +3173,7 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="66"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -3174,7 +3194,7 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -3197,7 +3217,7 @@
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -3215,7 +3235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="1" t="s">
         <v>30</v>
@@ -3238,7 +3258,7 @@
       <c r="L8" s="67"/>
       <c r="M8" s="67"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -3259,7 +3279,7 @@
       <c r="L9" s="67"/>
       <c r="M9" s="67"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -3280,7 +3300,7 @@
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
     </row>
-    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
@@ -3299,7 +3319,7 @@
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="66"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
@@ -3315,7 +3335,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
@@ -3331,7 +3351,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -3351,7 +3371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>50</v>
       </c>
@@ -3369,7 +3389,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="4" t="s">
         <v>55</v>
@@ -3387,7 +3407,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="4" t="s">
         <v>60</v>
@@ -3410,7 +3430,7 @@
       <c r="L17" s="67"/>
       <c r="M17" s="67"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="4" t="s">
         <v>64</v>
@@ -3426,7 +3446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="4" t="s">
         <v>67</v>
@@ -3442,7 +3462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>70</v>
       </c>
@@ -3469,7 +3489,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="71"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="13" t="s">
         <v>49</v>
@@ -3492,7 +3512,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="71"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
         <v>72</v>
       </c>
@@ -3515,7 +3535,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
       <c r="B23" s="1" t="s">
         <v>75</v>
@@ -3536,7 +3556,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="71"/>
     </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
       <c r="B24" s="1" t="s">
         <v>79</v>
@@ -3559,7 +3579,7 @@
       <c r="L24" s="71"/>
       <c r="M24" s="71"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="66"/>
       <c r="B25" s="1" t="s">
         <v>84</v>
@@ -3575,7 +3595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
       <c r="B26" s="1" t="s">
         <v>88</v>
@@ -3591,7 +3611,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="66"/>
       <c r="B27" s="1" t="s">
         <v>91</v>
@@ -3607,7 +3627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
       <c r="B28" s="1" t="s">
         <v>95</v>
@@ -3621,7 +3641,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="68"/>
     </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="66"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
@@ -3635,7 +3655,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="68"/>
     </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="66"/>
       <c r="B30" s="1" t="s">
         <v>99</v>
@@ -3649,7 +3669,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="68"/>
     </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="B31" s="1" t="s">
         <v>101</v>
@@ -3663,7 +3683,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="68"/>
     </row>
-    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="66"/>
       <c r="B32" s="1" t="s">
         <v>103</v>
@@ -3677,7 +3697,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="68"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>105</v>
       </c>
@@ -3695,7 +3715,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="65"/>
       <c r="B34" s="4" t="s">
         <v>110</v>
@@ -3711,7 +3731,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
       <c r="B35" s="4" t="s">
         <v>112</v>
@@ -3727,7 +3747,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="65"/>
       <c r="B36" s="4" t="s">
         <v>115</v>
@@ -3743,7 +3763,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
       <c r="B37" s="4" t="s">
         <v>119</v>
@@ -3759,7 +3779,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="65"/>
       <c r="B38" s="4" t="s">
         <v>123</v>
@@ -3775,7 +3795,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="66" t="s">
         <v>127</v>
       </c>
@@ -3793,7 +3813,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="66"/>
       <c r="B40" s="1" t="s">
         <v>131</v>
@@ -3809,7 +3829,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="66"/>
       <c r="B41" s="1" t="s">
         <v>134</v>
@@ -3825,7 +3845,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="66"/>
       <c r="B42" s="1" t="s">
         <v>137</v>
@@ -3841,7 +3861,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="66"/>
       <c r="B43" s="1" t="s">
         <v>139</v>
@@ -3857,7 +3877,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="66"/>
       <c r="B44" s="1" t="s">
         <v>141</v>
@@ -3873,7 +3893,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="66"/>
       <c r="B45" s="1" t="s">
         <v>144</v>
@@ -3891,7 +3911,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="66"/>
       <c r="B46" s="1" t="s">
         <v>148</v>
@@ -3907,7 +3927,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="66"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3915,7 +3935,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="66"/>
       <c r="B48" s="1" t="s">
         <v>150</v>
@@ -3931,7 +3951,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="66"/>
       <c r="B49" s="1" t="s">
         <v>154</v>
@@ -3947,7 +3967,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="66"/>
       <c r="B50" s="1" t="s">
         <v>158</v>
@@ -3963,7 +3983,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="66"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3971,7 +3991,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="66"/>
       <c r="B52" s="1" t="s">
         <v>160</v>
@@ -3987,7 +4007,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="66"/>
       <c r="B53" s="1" t="s">
         <v>163</v>
@@ -4003,7 +4023,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="66"/>
       <c r="B54" s="1" t="s">
         <v>166</v>
@@ -4019,7 +4039,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="66"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
@@ -4035,7 +4055,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="66"/>
       <c r="B56" s="1" t="s">
         <v>171</v>
@@ -4049,7 +4069,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="66"/>
       <c r="B57" s="1" t="s">
         <v>173</v>
@@ -4063,7 +4083,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="66"/>
       <c r="B58" s="1" t="s">
         <v>175</v>
@@ -4079,7 +4099,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="66"/>
       <c r="B59" s="1" t="s">
         <v>178</v>
@@ -4095,7 +4115,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="66"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
@@ -4111,7 +4131,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="66"/>
       <c r="B61" s="1" t="s">
         <v>182</v>
@@ -4127,7 +4147,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="66"/>
       <c r="B62" s="1" t="s">
         <v>184</v>
@@ -4143,7 +4163,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="66"/>
       <c r="B63" s="1" t="s">
         <v>186</v>
@@ -4159,7 +4179,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="66"/>
       <c r="B64" s="1" t="s">
         <v>188</v>
@@ -4175,7 +4195,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="66"/>
       <c r="B65" s="1" t="s">
         <v>190</v>
@@ -4189,7 +4209,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="66"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
@@ -4205,7 +4225,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="66"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4213,7 +4233,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="66"/>
       <c r="B68" s="1" t="s">
         <v>195</v>
@@ -4229,7 +4249,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="66"/>
       <c r="B69" s="1" t="s">
         <v>198</v>
@@ -4245,7 +4265,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="66"/>
       <c r="B70" s="1" t="s">
         <v>201</v>
@@ -4259,7 +4279,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="66"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4267,7 +4287,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="66"/>
       <c r="B72" s="1" t="s">
         <v>203</v>
@@ -4283,7 +4303,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="66"/>
       <c r="B73" s="1" t="s">
         <v>205</v>
@@ -4299,7 +4319,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="66"/>
       <c r="B74" s="1" t="s">
         <v>208</v>
@@ -4315,7 +4335,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="66"/>
       <c r="B75" s="1" t="s">
         <v>210</v>
@@ -4329,7 +4349,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="66"/>
       <c r="B76" s="1" t="s">
         <v>212</v>
@@ -4343,7 +4363,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="66"/>
       <c r="B77" s="1" t="s">
         <v>214</v>
@@ -4357,7 +4377,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="66"/>
       <c r="B78" s="1" t="s">
         <v>216</v>
@@ -4371,7 +4391,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="66"/>
       <c r="B79" s="1" t="s">
         <v>218</v>
@@ -4385,7 +4405,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="66"/>
       <c r="B80" s="1" t="s">
         <v>220</v>
@@ -4399,7 +4419,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="B81" s="1" t="s">
         <v>222</v>
@@ -4413,7 +4433,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="B82" s="1" t="s">
         <v>224</v>
@@ -4427,7 +4447,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="B83" s="1" t="s">
         <v>226</v>
@@ -4441,7 +4461,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="1" t="s">
         <v>228</v>
@@ -4455,7 +4475,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="B85" s="1" t="s">
         <v>230</v>
@@ -4469,7 +4489,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="66"/>
       <c r="B86" s="1" t="s">
         <v>232</v>
@@ -4485,7 +4505,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="66"/>
       <c r="B87" s="1" t="s">
         <v>234</v>
@@ -4499,7 +4519,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="66"/>
       <c r="B88" s="1" t="s">
         <v>236</v>
@@ -4513,7 +4533,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="66"/>
       <c r="B89" s="1" t="s">
         <v>238</v>
@@ -4527,7 +4547,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="66"/>
       <c r="B90" s="1" t="s">
         <v>240</v>
@@ -4543,7 +4563,7 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="66"/>
       <c r="B91" s="1" t="s">
         <v>242</v>
@@ -4557,7 +4577,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="66"/>
       <c r="B92" s="1" t="s">
         <v>244</v>
@@ -4571,7 +4591,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="66"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4579,7 +4599,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="66"/>
       <c r="B94" s="1" t="s">
         <v>246</v>
@@ -4593,7 +4613,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="66"/>
       <c r="B95" s="1" t="s">
         <v>248</v>
@@ -4607,7 +4627,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="66"/>
       <c r="B96" s="1" t="s">
         <v>250</v>
@@ -4621,7 +4641,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="66"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4629,7 +4649,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="66"/>
       <c r="B98" s="1" t="s">
         <v>252</v>
@@ -4643,7 +4663,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="66"/>
       <c r="B99" s="1" t="s">
         <v>254</v>
@@ -4657,7 +4677,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="66"/>
       <c r="B100" s="1" t="s">
         <v>257</v>
@@ -4671,7 +4691,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="66"/>
       <c r="B101" s="1" t="s">
         <v>259</v>
@@ -4685,7 +4705,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="66"/>
       <c r="B102" s="1" t="s">
         <v>262</v>
@@ -4699,7 +4719,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="66"/>
       <c r="B103" s="1" t="s">
         <v>264</v>
@@ -4713,7 +4733,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="66"/>
       <c r="B104" s="1" t="s">
         <v>266</v>
@@ -4727,7 +4747,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="66"/>
       <c r="B105" s="1" t="s">
         <v>268</v>
@@ -4741,7 +4761,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="66"/>
       <c r="B106" s="1" t="s">
         <v>270</v>
@@ -4755,7 +4775,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="66"/>
       <c r="B107" s="1" t="s">
         <v>272</v>
@@ -4769,7 +4789,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="66"/>
       <c r="B108" s="1" t="s">
         <v>274</v>
@@ -4783,7 +4803,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="66"/>
       <c r="B109" s="1" t="s">
         <v>276</v>
@@ -4797,7 +4817,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="66"/>
       <c r="B110" s="1" t="s">
         <v>278</v>
@@ -4813,7 +4833,7 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="66"/>
       <c r="B111" s="1" t="s">
         <v>280</v>
@@ -4827,7 +4847,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="66"/>
       <c r="B112" s="1" t="s">
         <v>282</v>
@@ -4841,7 +4861,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="66"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4849,7 +4869,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="66"/>
       <c r="B114" s="1" t="s">
         <v>284</v>
@@ -4863,7 +4883,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="66"/>
       <c r="B115" s="1" t="s">
         <v>287</v>
@@ -4877,7 +4897,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="66"/>
       <c r="B116" s="1" t="s">
         <v>289</v>
@@ -4891,7 +4911,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="66"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4899,7 +4919,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="66"/>
       <c r="B118" s="1" t="s">
         <v>291</v>
@@ -4913,7 +4933,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="66"/>
       <c r="B119" s="1" t="s">
         <v>293</v>
@@ -4927,7 +4947,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="66"/>
       <c r="B120" s="1" t="s">
         <v>296</v>
@@ -4941,7 +4961,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="66"/>
       <c r="B121" s="1" t="s">
         <v>298</v>
@@ -4955,7 +4975,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="66"/>
       <c r="B122" s="1" t="s">
         <v>301</v>
@@ -4969,7 +4989,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="66"/>
       <c r="B123" s="1" t="s">
         <v>303</v>
@@ -4981,7 +5001,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="66"/>
       <c r="B124" s="1" t="s">
         <v>305</v>
@@ -4995,7 +5015,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="66"/>
       <c r="B125" s="1" t="s">
         <v>307</v>
@@ -5009,7 +5029,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="66"/>
       <c r="B126" s="1" t="s">
         <v>309</v>
@@ -5023,7 +5043,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="66"/>
       <c r="B127" s="1" t="s">
         <v>311</v>
@@ -5037,7 +5057,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="66"/>
       <c r="B128" s="1" t="s">
         <v>313</v>
@@ -5053,7 +5073,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="66"/>
       <c r="B129" s="1" t="s">
         <v>315</v>
@@ -5067,7 +5087,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="66"/>
       <c r="B130" s="1" t="s">
         <v>317</v>
@@ -5081,7 +5101,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="66"/>
       <c r="B131" s="1" t="s">
         <v>319</v>
@@ -5095,7 +5115,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="66"/>
       <c r="B132" s="1" t="s">
         <v>321</v>
@@ -5111,7 +5131,7 @@
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="66"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5121,7 +5141,7 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="66"/>
       <c r="B134" s="1" t="s">
         <v>324</v>
@@ -5135,7 +5155,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="66"/>
       <c r="B135" s="1" t="s">
         <v>326</v>
@@ -5149,7 +5169,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="66"/>
       <c r="B136" s="1" t="s">
         <v>328</v>
@@ -5188,21 +5208,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655A41D-FAAE-4875-A0C4-A516EEA673B9}">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -5222,7 +5242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>6</v>
       </c>
@@ -5240,7 +5260,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
       <c r="B3" s="15" t="s">
         <v>7</v>
@@ -5258,7 +5278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
@@ -5274,23 +5294,23 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>470</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>471</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="18" t="s">
         <v>19</v>
@@ -5306,7 +5326,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="18" t="s">
         <v>432</v>
@@ -5320,7 +5340,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="18" t="s">
         <v>433</v>
@@ -5334,7 +5354,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="18" t="s">
         <v>434</v>
@@ -5348,7 +5368,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -5366,7 +5386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="18" t="s">
         <v>26</v>
@@ -5384,7 +5404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="18" t="s">
         <v>30</v>
@@ -5400,7 +5420,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="18" t="s">
         <v>34</v>
@@ -5416,7 +5436,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="18" t="s">
         <v>37</v>
@@ -5432,7 +5452,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="21" t="s">
         <v>41</v>
@@ -5444,7 +5464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="18" t="s">
         <v>430</v>
@@ -5458,7 +5478,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
         <v>50</v>
       </c>
@@ -5476,7 +5496,7 @@
       </c>
       <c r="F17" s="35"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
       <c r="B18" s="38" t="s">
         <v>55</v>
@@ -5494,7 +5514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73"/>
       <c r="B19" s="38" t="s">
         <v>60</v>
@@ -5510,7 +5530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="73"/>
       <c r="B20" s="38" t="s">
         <v>64</v>
@@ -5526,7 +5546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="73"/>
       <c r="B21" s="46" t="s">
         <v>44</v>
@@ -5542,7 +5562,7 @@
       </c>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="73"/>
       <c r="B22" s="46" t="s">
         <v>47</v>
@@ -5558,7 +5578,7 @@
       </c>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="73"/>
       <c r="B23" s="42" t="s">
         <v>67</v>
@@ -5574,7 +5594,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>72</v>
       </c>
@@ -5590,7 +5610,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="77"/>
       <c r="B25" s="18" t="s">
         <v>73</v>
@@ -5606,7 +5626,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="77"/>
       <c r="B26" s="18" t="s">
         <v>75</v>
@@ -5622,7 +5642,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="77"/>
       <c r="B27" s="18" t="s">
         <v>79</v>
@@ -5640,7 +5660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="77"/>
       <c r="B28" s="18" t="s">
         <v>84</v>
@@ -5656,7 +5676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="77"/>
       <c r="B29" s="18" t="s">
         <v>88</v>
@@ -5672,7 +5692,7 @@
       </c>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77"/>
       <c r="B30" s="18" t="s">
         <v>91</v>
@@ -5688,7 +5708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
       <c r="B31" s="18" t="s">
         <v>95</v>
@@ -5702,7 +5722,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="75"/>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="77"/>
       <c r="B32" s="18" t="s">
         <v>97</v>
@@ -5716,7 +5736,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="75"/>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="77"/>
       <c r="B33" s="18" t="s">
         <v>99</v>
@@ -5730,7 +5750,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="75"/>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="77"/>
       <c r="B34" s="18" t="s">
         <v>101</v>
@@ -5744,7 +5764,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="75"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="77"/>
       <c r="B35" s="18" t="s">
         <v>103</v>
@@ -5758,15 +5778,15 @@
       <c r="E35" s="19"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B36" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="C36" s="35" t="s">
         <v>489</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>490</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>114</v>
@@ -5774,29 +5794,29 @@
       <c r="E36" s="36"/>
       <c r="F36" s="37"/>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="78"/>
       <c r="B37" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="C37" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="C37" s="49" t="s">
-        <v>493</v>
-      </c>
       <c r="D37" s="49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="41" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>108</v>
@@ -5804,113 +5824,113 @@
       <c r="E38" s="40"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="78"/>
       <c r="B39" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>114</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="41" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="78"/>
       <c r="B40" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="D40" s="39" t="s">
         <v>535</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>537</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>536</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="41" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="78"/>
       <c r="B41" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="41"/>
     </row>
-    <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="78"/>
       <c r="B42" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C42" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D42" s="39" t="s">
         <v>483</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>484</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="78"/>
       <c r="B43" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="D43" s="47" t="s">
         <v>496</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>497</v>
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="51"/>
     </row>
-    <row r="44" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="78"/>
       <c r="B44" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C44" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>485</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>486</v>
       </c>
       <c r="E44" s="44"/>
       <c r="F44" s="45"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="72" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>507</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>508</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>114</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="72"/>
       <c r="B46" s="24" t="s">
         <v>106</v>
@@ -5926,7 +5946,7 @@
       </c>
       <c r="F46" s="52"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="72"/>
       <c r="B47" s="27" t="s">
         <v>110</v>
@@ -5942,7 +5962,7 @@
       </c>
       <c r="F47" s="29"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="72"/>
       <c r="B48" s="27" t="s">
         <v>112</v>
@@ -5958,7 +5978,7 @@
       </c>
       <c r="F48" s="29"/>
     </row>
-    <row r="49" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
       <c r="B49" s="27" t="s">
         <v>115</v>
@@ -5976,7 +5996,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
       <c r="B50" s="27" t="s">
         <v>119</v>
@@ -5992,7 +6012,7 @@
       </c>
       <c r="F50" s="29"/>
     </row>
-    <row r="51" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="72"/>
       <c r="B51" s="30" t="s">
         <v>123</v>
@@ -6001,40 +6021,40 @@
         <v>124</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>126</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="72"/>
       <c r="B52" s="15" t="s">
         <v>460</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>461</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="17" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="C53" s="53" t="s">
         <v>525</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>519</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>526</v>
       </c>
       <c r="D53" s="54" t="s">
         <v>108</v>
@@ -6042,27 +6062,27 @@
       <c r="E53" s="55"/>
       <c r="F53" s="54"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="73"/>
       <c r="B54" s="53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C54" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="D54" s="54" t="s">
         <v>527</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>528</v>
       </c>
       <c r="E54" s="55"/>
       <c r="F54" s="54"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="73"/>
       <c r="B55" s="53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D55" s="54" t="s">
         <v>114</v>
@@ -6070,13 +6090,13 @@
       <c r="E55" s="55"/>
       <c r="F55" s="54"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="73"/>
       <c r="B56" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D56" s="54" t="s">
         <v>114</v>
@@ -6084,35 +6104,35 @@
       <c r="E56" s="55"/>
       <c r="F56" s="54"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="73"/>
       <c r="B57" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="55"/>
       <c r="F57" s="54"/>
     </row>
-    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="73"/>
       <c r="B58" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E58" s="55"/>
       <c r="F58" s="54" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
         <v>127</v>
       </c>
@@ -6130,7 +6150,7 @@
       </c>
       <c r="F59" s="58"/>
     </row>
-    <row r="60" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="72"/>
       <c r="B60" s="59" t="s">
         <v>131</v>
@@ -6148,39 +6168,39 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="72"/>
       <c r="B61" s="59" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D61" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E61" s="61"/>
       <c r="F61" s="60" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="72"/>
       <c r="B62" s="59" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D62" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="60" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="72"/>
       <c r="B63" s="59" t="s">
         <v>134</v>
@@ -6196,7 +6216,7 @@
       </c>
       <c r="F63" s="60"/>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="72"/>
       <c r="B64" s="59" t="s">
         <v>137</v>
@@ -6212,7 +6232,7 @@
       </c>
       <c r="F64" s="60"/>
     </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="B65" s="59" t="s">
         <v>139</v>
@@ -6228,7 +6248,7 @@
       </c>
       <c r="F65" s="60"/>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="72"/>
       <c r="B66" s="59" t="s">
         <v>141</v>
@@ -6244,7 +6264,7 @@
       </c>
       <c r="F66" s="60"/>
     </row>
-    <row r="67" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="72"/>
       <c r="B67" s="59" t="s">
         <v>144</v>
@@ -6262,7 +6282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
       <c r="B68" s="59" t="s">
         <v>148</v>
@@ -6278,7 +6298,7 @@
       </c>
       <c r="F68" s="60"/>
     </row>
-    <row r="69" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="72"/>
       <c r="B69" s="59" t="s">
         <v>443</v>
@@ -6287,14 +6307,14 @@
         <v>445</v>
       </c>
       <c r="D69" s="59" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="E69" s="61"/>
       <c r="F69" s="60" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="72"/>
       <c r="B70" s="59" t="s">
         <v>150</v>
@@ -6310,7 +6330,7 @@
       </c>
       <c r="F70" s="60"/>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="72"/>
       <c r="B71" s="59" t="s">
         <v>154</v>
@@ -6326,7 +6346,7 @@
       </c>
       <c r="F71" s="60"/>
     </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="72"/>
       <c r="B72" s="59" t="s">
         <v>158</v>
@@ -6342,7 +6362,7 @@
       </c>
       <c r="F72" s="60"/>
     </row>
-    <row r="73" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="72"/>
       <c r="B73" s="59" t="s">
         <v>442</v>
@@ -6351,30 +6371,30 @@
         <v>444</v>
       </c>
       <c r="D73" s="59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E73" s="61"/>
       <c r="F73" s="60" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
       <c r="B74" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="C74" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="C74" s="60" t="s">
-        <v>499</v>
-      </c>
       <c r="D74" s="60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E74" s="61"/>
       <c r="F74" s="60" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A75" s="72"/>
       <c r="B75" s="59" t="s">
         <v>160</v>
@@ -6390,7 +6410,7 @@
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="72"/>
       <c r="B76" s="59" t="s">
         <v>163</v>
@@ -6406,7 +6426,7 @@
       </c>
       <c r="F76" s="60"/>
     </row>
-    <row r="77" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="72"/>
       <c r="B77" s="59" t="s">
         <v>166</v>
@@ -6422,7 +6442,7 @@
       </c>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="72"/>
       <c r="B78" s="59" t="s">
         <v>169</v>
@@ -6438,7 +6458,7 @@
       </c>
       <c r="F78" s="60"/>
     </row>
-    <row r="79" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="72"/>
       <c r="B79" s="59" t="s">
         <v>171</v>
@@ -6454,7 +6474,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="72"/>
       <c r="B80" s="59" t="s">
         <v>173</v>
@@ -6468,7 +6488,7 @@
       <c r="E80" s="61"/>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="72"/>
       <c r="B81" s="59" t="s">
         <v>175</v>
@@ -6484,7 +6504,7 @@
       </c>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="72"/>
       <c r="B82" s="59" t="s">
         <v>178</v>
@@ -6500,7 +6520,7 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="72"/>
       <c r="B83" s="59" t="s">
         <v>180</v>
@@ -6516,7 +6536,7 @@
       </c>
       <c r="F83" s="60"/>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="72"/>
       <c r="B84" s="59" t="s">
         <v>182</v>
@@ -6532,7 +6552,7 @@
       </c>
       <c r="F84" s="60"/>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="72"/>
       <c r="B85" s="59" t="s">
         <v>184</v>
@@ -6548,7 +6568,7 @@
       </c>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="72"/>
       <c r="B86" s="59" t="s">
         <v>186</v>
@@ -6564,7 +6584,7 @@
       </c>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="72"/>
       <c r="B87" s="59" t="s">
         <v>188</v>
@@ -6580,7 +6600,7 @@
       </c>
       <c r="F87" s="60"/>
     </row>
-    <row r="88" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="72"/>
       <c r="B88" s="59" t="s">
         <v>190</v>
@@ -6594,7 +6614,7 @@
       <c r="E88" s="61"/>
       <c r="F88" s="60"/>
     </row>
-    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="72"/>
       <c r="B89" s="59" t="s">
         <v>193</v>
@@ -6610,7 +6630,7 @@
       </c>
       <c r="F89" s="60"/>
     </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="72"/>
       <c r="B90" s="59" t="s">
         <v>447</v>
@@ -6623,10 +6643,10 @@
       </c>
       <c r="E90" s="61"/>
       <c r="F90" s="59" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="72"/>
       <c r="B91" s="59" t="s">
         <v>195</v>
@@ -6642,7 +6662,7 @@
       </c>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="72"/>
       <c r="B92" s="59" t="s">
         <v>198</v>
@@ -6658,7 +6678,7 @@
       </c>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="72"/>
       <c r="B93" s="59" t="s">
         <v>201</v>
@@ -6672,7 +6692,7 @@
       <c r="E93" s="61"/>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="72"/>
       <c r="B94" s="59" t="s">
         <v>451</v>
@@ -6685,26 +6705,26 @@
       </c>
       <c r="E94" s="61"/>
       <c r="F94" s="60" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="72"/>
       <c r="B95" s="59" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C95" s="60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D95" s="60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E95" s="61"/>
       <c r="F95" s="60" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A96" s="72"/>
       <c r="B96" s="59" t="s">
         <v>203</v>
@@ -6720,7 +6740,7 @@
       </c>
       <c r="F96" s="60"/>
     </row>
-    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="72"/>
       <c r="B97" s="59" t="s">
         <v>205</v>
@@ -6736,7 +6756,7 @@
       </c>
       <c r="F97" s="60"/>
     </row>
-    <row r="98" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="72"/>
       <c r="B98" s="59" t="s">
         <v>208</v>
@@ -6752,7 +6772,7 @@
       </c>
       <c r="F98" s="60"/>
     </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="59" t="s">
         <v>210</v>
@@ -6766,7 +6786,7 @@
       <c r="E99" s="61"/>
       <c r="F99" s="60"/>
     </row>
-    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="72"/>
       <c r="B100" s="59" t="s">
         <v>212</v>
@@ -6782,7 +6802,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="72"/>
       <c r="B101" s="59" t="s">
         <v>214</v>
@@ -6796,7 +6816,7 @@
       <c r="E101" s="61"/>
       <c r="F101" s="60"/>
     </row>
-    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="72"/>
       <c r="B102" s="59" t="s">
         <v>216</v>
@@ -6810,7 +6830,7 @@
       <c r="E102" s="61"/>
       <c r="F102" s="60"/>
     </row>
-    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="72"/>
       <c r="B103" s="59" t="s">
         <v>218</v>
@@ -6824,7 +6844,7 @@
       <c r="E103" s="61"/>
       <c r="F103" s="60"/>
     </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="72"/>
       <c r="B104" s="59" t="s">
         <v>220</v>
@@ -6840,7 +6860,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="72"/>
       <c r="B105" s="59" t="s">
         <v>222</v>
@@ -6854,13 +6874,13 @@
       <c r="E105" s="61"/>
       <c r="F105" s="60"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="72"/>
       <c r="B106" s="59" t="s">
         <v>459</v>
       </c>
       <c r="C106" s="59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D106" s="59" t="s">
         <v>39</v>
@@ -6868,10 +6888,10 @@
       <c r="E106" s="61"/>
       <c r="F106" s="60"/>
     </row>
-    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="72"/>
       <c r="B107" s="59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C107" s="60" t="s">
         <v>422</v>
@@ -6882,7 +6902,7 @@
       <c r="E107" s="61"/>
       <c r="F107" s="60"/>
     </row>
-    <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="72"/>
       <c r="B108" s="59" t="s">
         <v>228</v>
@@ -6896,7 +6916,7 @@
       <c r="E108" s="61"/>
       <c r="F108" s="60"/>
     </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="72"/>
       <c r="B109" s="59" t="s">
         <v>230</v>
@@ -6910,7 +6930,7 @@
       <c r="E109" s="61"/>
       <c r="F109" s="60"/>
     </row>
-    <row r="110" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="72"/>
       <c r="B110" s="59" t="s">
         <v>232</v>
@@ -6928,39 +6948,39 @@
         <v>379</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="72"/>
       <c r="B111" s="59" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C111" s="60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D111" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E111" s="61"/>
       <c r="F111" s="60" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="72"/>
       <c r="B112" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D112" s="60" t="s">
         <v>108</v>
       </c>
       <c r="E112" s="61"/>
       <c r="F112" s="60" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="72"/>
       <c r="B113" s="59" t="s">
         <v>234</v>
@@ -6974,7 +6994,7 @@
       <c r="E113" s="61"/>
       <c r="F113" s="60"/>
     </row>
-    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="72"/>
       <c r="B114" s="59" t="s">
         <v>236</v>
@@ -6988,7 +7008,7 @@
       <c r="E114" s="61"/>
       <c r="F114" s="60"/>
     </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="72"/>
       <c r="B115" s="59" t="s">
         <v>238</v>
@@ -7002,7 +7022,7 @@
       <c r="E115" s="61"/>
       <c r="F115" s="60"/>
     </row>
-    <row r="116" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="72"/>
       <c r="B116" s="59" t="s">
         <v>240</v>
@@ -7018,7 +7038,7 @@
       </c>
       <c r="F116" s="60"/>
     </row>
-    <row r="117" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="72"/>
       <c r="B117" s="59" t="s">
         <v>242</v>
@@ -7032,7 +7052,7 @@
       <c r="E117" s="61"/>
       <c r="F117" s="60"/>
     </row>
-    <row r="118" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="72"/>
       <c r="B118" s="59" t="s">
         <v>244</v>
@@ -7046,7 +7066,7 @@
       <c r="E118" s="61"/>
       <c r="F118" s="60"/>
     </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="72"/>
       <c r="B119" s="59" t="s">
         <v>449</v>
@@ -7059,10 +7079,10 @@
       </c>
       <c r="E119" s="61"/>
       <c r="F119" s="59" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A120" s="72"/>
       <c r="B120" s="59" t="s">
         <v>246</v>
@@ -7076,7 +7096,7 @@
       <c r="E120" s="61"/>
       <c r="F120" s="60"/>
     </row>
-    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="72"/>
       <c r="B121" s="59" t="s">
         <v>248</v>
@@ -7090,7 +7110,7 @@
       <c r="E121" s="61"/>
       <c r="F121" s="60"/>
     </row>
-    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="72"/>
       <c r="B122" s="59" t="s">
         <v>250</v>
@@ -7104,7 +7124,7 @@
       <c r="E122" s="61"/>
       <c r="F122" s="60"/>
     </row>
-    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="72"/>
       <c r="B123" s="59" t="s">
         <v>453</v>
@@ -7117,26 +7137,26 @@
       </c>
       <c r="E123" s="61"/>
       <c r="F123" s="60" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="72"/>
       <c r="B124" s="59" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C124" s="60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D124" s="60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E124" s="61"/>
       <c r="F124" s="60" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A125" s="72"/>
       <c r="B125" s="59" t="s">
         <v>252</v>
@@ -7150,7 +7170,7 @@
       <c r="E125" s="61"/>
       <c r="F125" s="60"/>
     </row>
-    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="72"/>
       <c r="B126" s="59" t="s">
         <v>254</v>
@@ -7164,7 +7184,7 @@
       <c r="E126" s="61"/>
       <c r="F126" s="60"/>
     </row>
-    <row r="127" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="72"/>
       <c r="B127" s="59" t="s">
         <v>257</v>
@@ -7178,7 +7198,7 @@
       <c r="E127" s="61"/>
       <c r="F127" s="60"/>
     </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="72"/>
       <c r="B128" s="59" t="s">
         <v>259</v>
@@ -7192,7 +7212,7 @@
       <c r="E128" s="61"/>
       <c r="F128" s="60"/>
     </row>
-    <row r="129" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="72"/>
       <c r="B129" s="59" t="s">
         <v>262</v>
@@ -7206,7 +7226,7 @@
       <c r="E129" s="61"/>
       <c r="F129" s="60"/>
     </row>
-    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="72"/>
       <c r="B130" s="59" t="s">
         <v>264</v>
@@ -7220,7 +7240,7 @@
       <c r="E130" s="61"/>
       <c r="F130" s="60"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="72"/>
       <c r="B131" s="59" t="s">
         <v>266</v>
@@ -7234,7 +7254,7 @@
       <c r="E131" s="61"/>
       <c r="F131" s="60"/>
     </row>
-    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="72"/>
       <c r="B132" s="59" t="s">
         <v>268</v>
@@ -7248,7 +7268,7 @@
       <c r="E132" s="61"/>
       <c r="F132" s="60"/>
     </row>
-    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="72"/>
       <c r="B133" s="59" t="s">
         <v>270</v>
@@ -7262,7 +7282,7 @@
       <c r="E133" s="61"/>
       <c r="F133" s="60"/>
     </row>
-    <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="72"/>
       <c r="B134" s="59" t="s">
         <v>272</v>
@@ -7276,7 +7296,7 @@
       <c r="E134" s="61"/>
       <c r="F134" s="60"/>
     </row>
-    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="72"/>
       <c r="B135" s="59" t="s">
         <v>274</v>
@@ -7290,7 +7310,7 @@
       <c r="E135" s="61"/>
       <c r="F135" s="60"/>
     </row>
-    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="72"/>
       <c r="B136" s="59" t="s">
         <v>276</v>
@@ -7304,7 +7324,7 @@
       <c r="E136" s="61"/>
       <c r="F136" s="60"/>
     </row>
-    <row r="137" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="72"/>
       <c r="B137" s="59" t="s">
         <v>278</v>
@@ -7320,7 +7340,7 @@
       </c>
       <c r="F137" s="60"/>
     </row>
-    <row r="138" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="72"/>
       <c r="B138" s="59" t="s">
         <v>280</v>
@@ -7334,10 +7354,10 @@
       <c r="E138" s="61"/>
       <c r="F138" s="60"/>
     </row>
-    <row r="139" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="72"/>
       <c r="B139" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C139" s="60" t="s">
         <v>402</v>
@@ -7348,7 +7368,7 @@
       <c r="E139" s="61"/>
       <c r="F139" s="60"/>
     </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="72"/>
       <c r="B140" s="59" t="s">
         <v>455</v>
@@ -7361,10 +7381,10 @@
       </c>
       <c r="E140" s="61"/>
       <c r="F140" s="59" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A141" s="72"/>
       <c r="B141" s="59" t="s">
         <v>284</v>
@@ -7378,7 +7398,7 @@
       <c r="E141" s="61"/>
       <c r="F141" s="60"/>
     </row>
-    <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="72"/>
       <c r="B142" s="59" t="s">
         <v>287</v>
@@ -7392,7 +7412,7 @@
       <c r="E142" s="61"/>
       <c r="F142" s="60"/>
     </row>
-    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="72"/>
       <c r="B143" s="59" t="s">
         <v>289</v>
@@ -7406,7 +7426,7 @@
       <c r="E143" s="61"/>
       <c r="F143" s="60"/>
     </row>
-    <row r="144" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="72"/>
       <c r="B144" s="59" t="s">
         <v>457</v>
@@ -7419,26 +7439,26 @@
       </c>
       <c r="E144" s="61"/>
       <c r="F144" s="60" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="72"/>
       <c r="B145" s="59" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C145" s="60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D145" s="60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E145" s="61"/>
       <c r="F145" s="60" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A146" s="72"/>
       <c r="B146" s="59" t="s">
         <v>291</v>
@@ -7452,7 +7472,7 @@
       <c r="E146" s="61"/>
       <c r="F146" s="60"/>
     </row>
-    <row r="147" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="72"/>
       <c r="B147" s="59" t="s">
         <v>293</v>
@@ -7466,7 +7486,7 @@
       <c r="E147" s="61"/>
       <c r="F147" s="60"/>
     </row>
-    <row r="148" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A148" s="72"/>
       <c r="B148" s="59" t="s">
         <v>296</v>
@@ -7480,7 +7500,7 @@
       <c r="E148" s="61"/>
       <c r="F148" s="60"/>
     </row>
-    <row r="149" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="72"/>
       <c r="B149" s="59" t="s">
         <v>298</v>
@@ -7494,7 +7514,7 @@
       <c r="E149" s="61"/>
       <c r="F149" s="60"/>
     </row>
-    <row r="150" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="72"/>
       <c r="B150" s="59" t="s">
         <v>301</v>
@@ -7508,7 +7528,7 @@
       <c r="E150" s="61"/>
       <c r="F150" s="60"/>
     </row>
-    <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="72"/>
       <c r="B151" s="59" t="s">
         <v>303</v>
@@ -7520,7 +7540,7 @@
       <c r="E151" s="61"/>
       <c r="F151" s="60"/>
     </row>
-    <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="72"/>
       <c r="B152" s="59" t="s">
         <v>305</v>
@@ -7534,7 +7554,7 @@
       <c r="E152" s="61"/>
       <c r="F152" s="60"/>
     </row>
-    <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="72"/>
       <c r="B153" s="59" t="s">
         <v>307</v>
@@ -7548,7 +7568,7 @@
       <c r="E153" s="61"/>
       <c r="F153" s="60"/>
     </row>
-    <row r="154" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="72"/>
       <c r="B154" s="59" t="s">
         <v>309</v>
@@ -7562,7 +7582,7 @@
       <c r="E154" s="61"/>
       <c r="F154" s="60"/>
     </row>
-    <row r="155" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="72"/>
       <c r="B155" s="59" t="s">
         <v>311</v>
@@ -7576,7 +7596,7 @@
       <c r="E155" s="61"/>
       <c r="F155" s="60"/>
     </row>
-    <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="72"/>
       <c r="B156" s="59" t="s">
         <v>224</v>
@@ -7590,7 +7610,7 @@
       <c r="E156" s="61"/>
       <c r="F156" s="60"/>
     </row>
-    <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="72"/>
       <c r="B157" s="59" t="s">
         <v>315</v>
@@ -7604,7 +7624,7 @@
       <c r="E157" s="61"/>
       <c r="F157" s="60"/>
     </row>
-    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="72"/>
       <c r="B158" s="59" t="s">
         <v>317</v>
@@ -7618,7 +7638,7 @@
       <c r="E158" s="61"/>
       <c r="F158" s="60"/>
     </row>
-    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="72"/>
       <c r="B159" s="59" t="s">
         <v>319</v>
@@ -7632,7 +7652,7 @@
       <c r="E159" s="61"/>
       <c r="F159" s="60"/>
     </row>
-    <row r="160" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A160" s="72"/>
       <c r="B160" s="59" t="s">
         <v>321</v>
@@ -7650,7 +7670,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="72"/>
       <c r="B161" s="59"/>
       <c r="C161" s="59"/>
@@ -7662,7 +7682,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="72"/>
       <c r="B162" s="59" t="s">
         <v>324</v>
@@ -7676,7 +7696,7 @@
       <c r="E162" s="61"/>
       <c r="F162" s="60"/>
     </row>
-    <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="72"/>
       <c r="B163" s="59" t="s">
         <v>326</v>
@@ -7692,7 +7712,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="72"/>
       <c r="B164" s="62" t="s">
         <v>328</v>
@@ -7728,10 +7748,47 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
+    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
+    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Value>5</Value>
+      <Value>3</Value>
+    </TaxCatchAll>
+    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
+        </TermInfo>
+      </Terms>
+    </i008215bacac45029ee8cafff4c8e93b>
+    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
+    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WBDocument" ma:contentTypeID="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F020023FF955149D2434D9634B069E3D44A42" ma:contentTypeVersion="49" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="765f642684fa63bc1b9312c368d0b6a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e02667f-0271-471b-bd6e-11a2e16def1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e953fe045711556fedbcbd575ad79d22" ns3:_="">
     <xsd:import namespace="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
@@ -7973,70 +8030,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o1cb080a3dca4eb8a0fd03c7cc8bf8f7 xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o1cb080a3dca4eb8a0fd03c7cc8bf8f7>
-    <Abstract xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <WBDocs_Access_To_Info_Exception xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">12. Not Assessed</WBDocs_Access_To_Info_Exception>
-    <WBDocs_Document_Date xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">2020-12-22T17:31:22+00:00</WBDocs_Document_Date>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Value>5</Value>
-      <Value>3</Value>
-    </TaxCatchAll>
-    <OneCMS_Subcategory xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <i008215bacac45029ee8cafff4c8e93b xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">HSJDR</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b82b4e50-8b87-486b-adae-4a5ffb2d1593</TermId>
-        </TermInfo>
-      </Terms>
-    </i008215bacac45029ee8cafff4c8e93b>
-    <WBDocs_Information_Classification xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d">Official Use Only</WBDocs_Information_Classification>
-    <OneCMS_Category xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2a6c10d7-b926-4fc0-945e-3cbf5049f6bd" ContentTypeId="0x010100F4C63C3BD852AE468EAEFD0E6C57C64F02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8058,17 +8068,27 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8074832C-F0BA-4806-8675-5DC290219507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA715D2A-5893-441B-82FC-527C371B80FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B32DBFF-5393-4654-88B0-C956207D28B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C49A35-6CF8-4B2E-BB80-5700FA61EE99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>